--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.795813</v>
+        <v>58.45400900000001</v>
       </c>
       <c r="H2">
-        <v>128.387439</v>
+        <v>175.362027</v>
       </c>
       <c r="I2">
-        <v>0.5625751540183725</v>
+        <v>0.654344352429287</v>
       </c>
       <c r="J2">
-        <v>0.5625751540183725</v>
+        <v>0.6543443524292871</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.784387333333334</v>
+        <v>0.8595406666666667</v>
       </c>
       <c r="N2">
-        <v>5.353162000000001</v>
+        <v>2.578622</v>
       </c>
       <c r="O2">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="P2">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="Q2">
-        <v>76.36430663690203</v>
+        <v>50.24359786519934</v>
       </c>
       <c r="R2">
-        <v>687.2787597321181</v>
+        <v>452.192380786794</v>
       </c>
       <c r="S2">
-        <v>0.4780479713197656</v>
+        <v>0.4612394843120739</v>
       </c>
       <c r="T2">
-        <v>0.4780479713197656</v>
+        <v>0.461239484312074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.795813</v>
+        <v>58.45400900000001</v>
       </c>
       <c r="H3">
-        <v>128.387439</v>
+        <v>175.362027</v>
       </c>
       <c r="I3">
-        <v>0.5625751540183725</v>
+        <v>0.654344352429287</v>
       </c>
       <c r="J3">
-        <v>0.5625751540183725</v>
+        <v>0.6543443524292871</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,25 +626,25 @@
         <v>0.282763</v>
       </c>
       <c r="N3">
-        <v>0.848289</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O3">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="P3">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="Q3">
-        <v>12.101072471319</v>
+        <v>16.528630946867</v>
       </c>
       <c r="R3">
-        <v>108.909652241871</v>
+        <v>148.757678521803</v>
       </c>
       <c r="S3">
-        <v>0.07575388817728147</v>
+        <v>0.151733903188449</v>
       </c>
       <c r="T3">
-        <v>0.07575388817728147</v>
+        <v>0.1517339031884491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.795813</v>
+        <v>58.45400900000001</v>
       </c>
       <c r="H4">
-        <v>128.387439</v>
+        <v>175.362027</v>
       </c>
       <c r="I4">
-        <v>0.5625751540183725</v>
+        <v>0.654344352429287</v>
       </c>
       <c r="J4">
-        <v>0.5625751540183725</v>
+        <v>0.6543443524292871</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03274766666666667</v>
+        <v>0.07709666666666666</v>
       </c>
       <c r="N4">
-        <v>0.098243</v>
+        <v>0.23129</v>
       </c>
       <c r="O4">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="P4">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="Q4">
-        <v>1.401463018853</v>
+        <v>4.506609247203333</v>
       </c>
       <c r="R4">
-        <v>12.613167169677</v>
+        <v>40.55948322483</v>
       </c>
       <c r="S4">
-        <v>0.008773294521325475</v>
+        <v>0.0413709649287641</v>
       </c>
       <c r="T4">
-        <v>0.008773294521325475</v>
+        <v>0.0413709649287641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>55.384907</v>
       </c>
       <c r="I5">
-        <v>0.2426886370544259</v>
+        <v>0.2066627634571724</v>
       </c>
       <c r="J5">
-        <v>0.2426886370544258</v>
+        <v>0.2066627634571724</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.784387333333334</v>
+        <v>0.8595406666666667</v>
       </c>
       <c r="N5">
-        <v>5.353162000000001</v>
+        <v>2.578622</v>
       </c>
       <c r="O5">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="P5">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="Q5">
-        <v>32.9427088362149</v>
+        <v>15.86852662868378</v>
       </c>
       <c r="R5">
-        <v>296.4843795259341</v>
+        <v>142.816739658154</v>
       </c>
       <c r="S5">
-        <v>0.2062245546706784</v>
+        <v>0.1456741027711328</v>
       </c>
       <c r="T5">
-        <v>0.2062245546706784</v>
+        <v>0.1456741027711328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>55.384907</v>
       </c>
       <c r="I6">
-        <v>0.2426886370544259</v>
+        <v>0.2066627634571724</v>
       </c>
       <c r="J6">
-        <v>0.2426886370544258</v>
+        <v>0.2066627634571724</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,25 +812,25 @@
         <v>0.282763</v>
       </c>
       <c r="N6">
-        <v>0.848289</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O6">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="P6">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="Q6">
-        <v>5.220267486013666</v>
+        <v>5.220267486013667</v>
       </c>
       <c r="R6">
         <v>46.982407374123</v>
       </c>
       <c r="S6">
-        <v>0.03267938113156953</v>
+        <v>0.04792239380786385</v>
       </c>
       <c r="T6">
-        <v>0.03267938113156953</v>
+        <v>0.04792239380786385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>55.384907</v>
       </c>
       <c r="I7">
-        <v>0.2426886370544259</v>
+        <v>0.2066627634571724</v>
       </c>
       <c r="J7">
-        <v>0.2426886370544258</v>
+        <v>0.2066627634571724</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03274766666666667</v>
+        <v>0.07709666666666666</v>
       </c>
       <c r="N7">
-        <v>0.098243</v>
+        <v>0.23129</v>
       </c>
       <c r="O7">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="P7">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="Q7">
-        <v>0.6045754909334444</v>
+        <v>1.423330571114444</v>
       </c>
       <c r="R7">
-        <v>5.441179418401</v>
+        <v>12.80997514003</v>
       </c>
       <c r="S7">
-        <v>0.003784701252177956</v>
+        <v>0.01306626687817575</v>
       </c>
       <c r="T7">
-        <v>0.003784701252177955</v>
+        <v>0.01306626687817575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.580059666666667</v>
+        <v>10.312204</v>
       </c>
       <c r="H8">
-        <v>22.740179</v>
+        <v>30.936612</v>
       </c>
       <c r="I8">
-        <v>0.09964416926589183</v>
+        <v>0.1154366067261307</v>
       </c>
       <c r="J8">
-        <v>0.09964416926589181</v>
+        <v>0.1154366067261307</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.784387333333334</v>
+        <v>0.8595406666666667</v>
       </c>
       <c r="N8">
-        <v>5.353162000000001</v>
+        <v>2.578622</v>
       </c>
       <c r="O8">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="P8">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="Q8">
-        <v>13.52576245511089</v>
+        <v>8.863758700962666</v>
       </c>
       <c r="R8">
-        <v>121.731862095998</v>
+        <v>79.77382830866401</v>
       </c>
       <c r="S8">
-        <v>0.08467258575348899</v>
+        <v>0.08136987926834761</v>
       </c>
       <c r="T8">
-        <v>0.08467258575348897</v>
+        <v>0.08136987926834763</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.580059666666667</v>
+        <v>10.312204</v>
       </c>
       <c r="H9">
-        <v>22.740179</v>
+        <v>30.936612</v>
       </c>
       <c r="I9">
-        <v>0.09964416926589183</v>
+        <v>0.1154366067261307</v>
       </c>
       <c r="J9">
-        <v>0.09964416926589181</v>
+        <v>0.1154366067261307</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,25 +998,25 @@
         <v>0.282763</v>
       </c>
       <c r="N9">
-        <v>0.848289</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O9">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="P9">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="Q9">
-        <v>2.143360411525667</v>
+        <v>2.915909739652</v>
       </c>
       <c r="R9">
-        <v>19.290243703731</v>
+        <v>26.243187656868</v>
       </c>
       <c r="S9">
-        <v>0.01341764420659068</v>
+        <v>0.02676824036817623</v>
       </c>
       <c r="T9">
-        <v>0.01341764420659068</v>
+        <v>0.02676824036817623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.580059666666667</v>
+        <v>10.312204</v>
       </c>
       <c r="H10">
-        <v>22.740179</v>
+        <v>30.936612</v>
       </c>
       <c r="I10">
-        <v>0.09964416926589183</v>
+        <v>0.1154366067261307</v>
       </c>
       <c r="J10">
-        <v>0.09964416926589181</v>
+        <v>0.1154366067261307</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03274766666666667</v>
+        <v>0.07709666666666666</v>
       </c>
       <c r="N10">
-        <v>0.098243</v>
+        <v>0.23129</v>
       </c>
       <c r="O10">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="P10">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="Q10">
-        <v>0.2482292672774445</v>
+        <v>0.7950365543866665</v>
       </c>
       <c r="R10">
-        <v>2.234063405497</v>
+        <v>7.15532898948</v>
       </c>
       <c r="S10">
-        <v>0.001553939305812157</v>
+        <v>0.007298487089606819</v>
       </c>
       <c r="T10">
-        <v>0.001553939305812156</v>
+        <v>0.00729848708960682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.050643333333333</v>
+        <v>0.2278333333333333</v>
       </c>
       <c r="H11">
-        <v>6.15193</v>
+        <v>0.6835</v>
       </c>
       <c r="I11">
-        <v>0.02695686582906484</v>
+        <v>0.002550405994596639</v>
       </c>
       <c r="J11">
-        <v>0.02695686582906484</v>
+        <v>0.002550405994596639</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.784387333333334</v>
+        <v>0.8595406666666667</v>
       </c>
       <c r="N11">
-        <v>5.353162000000001</v>
+        <v>2.578622</v>
       </c>
       <c r="O11">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="P11">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="Q11">
-        <v>3.659141989184445</v>
+        <v>0.1958320152222222</v>
       </c>
       <c r="R11">
-        <v>32.93227790266</v>
+        <v>1.762488137</v>
       </c>
       <c r="S11">
-        <v>0.02290658400157982</v>
+        <v>0.001797750590139463</v>
       </c>
       <c r="T11">
-        <v>0.02290658400157982</v>
+        <v>0.001797750590139463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.050643333333333</v>
+        <v>0.2278333333333333</v>
       </c>
       <c r="H12">
-        <v>6.15193</v>
+        <v>0.6835</v>
       </c>
       <c r="I12">
-        <v>0.02695686582906484</v>
+        <v>0.002550405994596639</v>
       </c>
       <c r="J12">
-        <v>0.02695686582906484</v>
+        <v>0.002550405994596639</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1184,25 +1184,25 @@
         <v>0.282763</v>
       </c>
       <c r="N12">
-        <v>0.848289</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O12">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="P12">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="Q12">
-        <v>0.5798460608633333</v>
+        <v>0.06442283683333334</v>
       </c>
       <c r="R12">
-        <v>5.21861454777</v>
+        <v>0.5798055315</v>
       </c>
       <c r="S12">
-        <v>0.00362989261974813</v>
+        <v>0.0005914058168893367</v>
       </c>
       <c r="T12">
-        <v>0.00362989261974813</v>
+        <v>0.0005914058168893366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.050643333333333</v>
+        <v>0.2278333333333333</v>
       </c>
       <c r="H13">
-        <v>6.15193</v>
+        <v>0.6835</v>
       </c>
       <c r="I13">
-        <v>0.02695686582906484</v>
+        <v>0.002550405994596639</v>
       </c>
       <c r="J13">
-        <v>0.02695686582906484</v>
+        <v>0.002550405994596639</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03274766666666667</v>
+        <v>0.07709666666666666</v>
       </c>
       <c r="N13">
-        <v>0.098243</v>
+        <v>0.23129</v>
       </c>
       <c r="O13">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="P13">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="Q13">
-        <v>0.06715378433222223</v>
+        <v>0.01756519055555555</v>
       </c>
       <c r="R13">
-        <v>0.60438405899</v>
+        <v>0.158086715</v>
       </c>
       <c r="S13">
-        <v>0.0004203892077368864</v>
+        <v>0.0001612495875678391</v>
       </c>
       <c r="T13">
-        <v>0.0004203892077368863</v>
+        <v>0.0001612495875678391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6981666666666667</v>
+        <v>1.290132</v>
       </c>
       <c r="H14">
-        <v>2.0945</v>
+        <v>3.870396</v>
       </c>
       <c r="I14">
-        <v>0.009177795501407902</v>
+        <v>0.01444196219438603</v>
       </c>
       <c r="J14">
-        <v>0.0091777955014079</v>
+        <v>0.01444196219438603</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.784387333333334</v>
+        <v>0.8595406666666667</v>
       </c>
       <c r="N14">
-        <v>5.353162000000001</v>
+        <v>2.578622</v>
       </c>
       <c r="O14">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="P14">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="Q14">
-        <v>1.245799756555556</v>
+        <v>1.108920919368</v>
       </c>
       <c r="R14">
-        <v>11.212197809</v>
+        <v>9.980288274312</v>
       </c>
       <c r="S14">
-        <v>0.007798827390966566</v>
+        <v>0.01017996590061948</v>
       </c>
       <c r="T14">
-        <v>0.007798827390966564</v>
+        <v>0.01017996590061948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6981666666666667</v>
+        <v>1.290132</v>
       </c>
       <c r="H15">
-        <v>2.0945</v>
+        <v>3.870396</v>
       </c>
       <c r="I15">
-        <v>0.009177795501407902</v>
+        <v>0.01444196219438603</v>
       </c>
       <c r="J15">
-        <v>0.0091777955014079</v>
+        <v>0.01444196219438603</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,25 +1370,25 @@
         <v>0.282763</v>
       </c>
       <c r="N15">
-        <v>0.848289</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O15">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="P15">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="Q15">
-        <v>0.1974157011666667</v>
+        <v>0.364801594716</v>
       </c>
       <c r="R15">
-        <v>1.7767413105</v>
+        <v>3.283214352444</v>
       </c>
       <c r="S15">
-        <v>0.001235841450091672</v>
+        <v>0.003348902279539461</v>
       </c>
       <c r="T15">
-        <v>0.001235841450091672</v>
+        <v>0.00334890227953946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6981666666666667</v>
+        <v>1.290132</v>
       </c>
       <c r="H16">
-        <v>2.0945</v>
+        <v>3.870396</v>
       </c>
       <c r="I16">
-        <v>0.009177795501407902</v>
+        <v>0.01444196219438603</v>
       </c>
       <c r="J16">
-        <v>0.0091777955014079</v>
+        <v>0.01444196219438603</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03274766666666667</v>
+        <v>0.07709666666666666</v>
       </c>
       <c r="N16">
-        <v>0.098243</v>
+        <v>0.23129</v>
       </c>
       <c r="O16">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="P16">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="Q16">
-        <v>0.02286332927777778</v>
+        <v>0.09946487676</v>
       </c>
       <c r="R16">
-        <v>0.2057699635</v>
+        <v>0.8951838908399999</v>
       </c>
       <c r="S16">
-        <v>0.000143126660349664</v>
+        <v>0.0009130940142270872</v>
       </c>
       <c r="T16">
-        <v>0.000143126660349664</v>
+        <v>0.0009130940142270872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.484963333333334</v>
+        <v>0.5863683333333334</v>
       </c>
       <c r="H17">
-        <v>13.45489</v>
+        <v>1.759105</v>
       </c>
       <c r="I17">
-        <v>0.05895737833083704</v>
+        <v>0.006563909198427097</v>
       </c>
       <c r="J17">
-        <v>0.05895737833083702</v>
+        <v>0.006563909198427097</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.784387333333334</v>
+        <v>0.8595406666666667</v>
       </c>
       <c r="N17">
-        <v>5.353162000000001</v>
+        <v>2.578622</v>
       </c>
       <c r="O17">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="P17">
-        <v>0.8497495275167334</v>
+        <v>0.7048880036936188</v>
       </c>
       <c r="Q17">
-        <v>8.002911762464448</v>
+        <v>0.5040074281455557</v>
       </c>
       <c r="R17">
-        <v>72.02620586218002</v>
+        <v>4.53606685331</v>
       </c>
       <c r="S17">
-        <v>0.05009900438025407</v>
+        <v>0.004626820851305459</v>
       </c>
       <c r="T17">
-        <v>0.05009900438025405</v>
+        <v>0.004626820851305459</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.484963333333334</v>
+        <v>0.5863683333333334</v>
       </c>
       <c r="H18">
-        <v>13.45489</v>
+        <v>1.759105</v>
       </c>
       <c r="I18">
-        <v>0.05895737833083704</v>
+        <v>0.006563909198427097</v>
       </c>
       <c r="J18">
-        <v>0.05895737833083702</v>
+        <v>0.006563909198427097</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,25 +1556,25 @@
         <v>0.282763</v>
       </c>
       <c r="N18">
-        <v>0.848289</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O18">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="P18">
-        <v>0.1346555880333235</v>
+        <v>0.2318869302151522</v>
       </c>
       <c r="Q18">
-        <v>1.268181687023333</v>
+        <v>0.1658032690383334</v>
       </c>
       <c r="R18">
-        <v>11.41363518321</v>
+        <v>1.492229421345</v>
       </c>
       <c r="S18">
-        <v>0.007938940448041984</v>
+        <v>0.00152208475423426</v>
       </c>
       <c r="T18">
-        <v>0.007938940448041982</v>
+        <v>0.00152208475423426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.484963333333334</v>
+        <v>0.5863683333333334</v>
       </c>
       <c r="H19">
-        <v>13.45489</v>
+        <v>1.759105</v>
       </c>
       <c r="I19">
-        <v>0.05895737833083704</v>
+        <v>0.006563909198427097</v>
       </c>
       <c r="J19">
-        <v>0.05895737833083702</v>
+        <v>0.006563909198427097</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.03274766666666667</v>
+        <v>0.07709666666666666</v>
       </c>
       <c r="N19">
-        <v>0.098243</v>
+        <v>0.23129</v>
       </c>
       <c r="O19">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="P19">
-        <v>0.01559488444994312</v>
+        <v>0.06322506609122898</v>
       </c>
       <c r="Q19">
-        <v>0.1468720842522223</v>
+        <v>0.04520704393888889</v>
       </c>
       <c r="R19">
-        <v>1.32184875827</v>
+        <v>0.40686339545</v>
       </c>
       <c r="S19">
-        <v>0.000919433502540984</v>
+        <v>0.0004150035928873791</v>
       </c>
       <c r="T19">
-        <v>0.0009194335025409838</v>
+        <v>0.0004150035928873791</v>
       </c>
     </row>
   </sheetData>
